--- a/src/pdsys/src/main/resources/files/iotemplates/模板_订单导入.xlsx
+++ b/src/pdsys/src/main/resources/files/iotemplates/模板_订单导入.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>顾客名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,14 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>demo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,6 +90,50 @@
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sssdsaf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JPY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式： 2018-07-02 12:23:34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MARUKI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-07-02 12:23:34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4978446010340</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ss1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -170,7 +206,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -220,11 +256,20 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -237,7 +282,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -283,14 +328,17 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -568,84 +616,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="17.625" style="8" customWidth="1"/>
     <col min="2" max="2" width="45.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9" style="12"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="3" max="5" width="9" style="12"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C1" s="9"/>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="C3" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>24</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="C4" s="13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="15" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -655,36 +723,55 @@
       <c r="C8" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="D8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6">
       <c r="A10" s="7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="7"/>
       <c r="B11" s="2"/>
       <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A7:C7"/>
+  <mergeCells count="2">
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A7:E7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
